--- a/Floorplan_base_line.xlsx
+++ b/Floorplan_base_line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ihuipen_tudelft_nl/Documents/Documenten/1. UNI/3. Industrial Ecology/Year 2/ABM/Visual studio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DAE94421-9962-4AB4-B401-AE48D85EDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5774DEC6-5ED3-47A9-90F4-ACADDD599008}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{DAE94421-9962-4AB4-B401-AE48D85EDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F12DB38-9421-4FC0-801C-88BA25D03459}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +387,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -596,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -2364,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
